--- a/src/main/resources/datasources/france/infoPaieFrance.xlsx
+++ b/src/main/resources/datasources/france/infoPaieFrance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A27AF9-E204-411D-97FD-7C240FD5644F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2323C6-40E7-4A3A-8B69-054F6D843692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
@@ -493,28 +493,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>8</v>
+        <v>6.12</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(5,15)</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(0,200)</f>
-        <v>120</v>
+        <v>101.1</v>
       </c>
       <c r="H2">
         <v>45.2</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -528,27 +525,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>13.24</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E58" ca="1" si="0">RANDBETWEEN(5,15)</f>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G58" ca="1" si="1">RANDBETWEEN(0,200)</f>
-        <v>176</v>
+        <v>113.25</v>
       </c>
       <c r="H3">
         <v>45.2</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -562,27 +557,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>71.13</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>113.25</v>
       </c>
       <c r="H4">
         <v>45.2</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -596,27 +589,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>146</v>
+        <v>113.25</v>
       </c>
       <c r="H5">
         <v>45.2</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -630,27 +621,25 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>113.25</v>
       </c>
       <c r="H6">
         <v>45.2</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -664,27 +653,25 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>113.25</v>
       </c>
       <c r="H7">
         <v>45.2</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -698,27 +685,25 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>113.25</v>
       </c>
       <c r="H8">
         <v>45.2</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -732,27 +717,25 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D9">
         <v>9.0299999999999994</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>113.25</v>
       </c>
       <c r="H9">
         <v>45.2</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
@@ -766,27 +749,25 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D10">
         <v>12.13</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F10">
         <v>11</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>113.25</v>
       </c>
       <c r="H10">
         <v>45.2</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
@@ -800,27 +781,25 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D11">
         <v>12.5</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>113.25</v>
       </c>
       <c r="H11">
         <v>45.2</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
@@ -834,27 +813,25 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>113.25</v>
       </c>
       <c r="H12">
         <v>45.2</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
@@ -868,27 +845,25 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>113.25</v>
       </c>
       <c r="H13">
         <v>45.2</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J13" t="s">
         <v>10</v>
@@ -902,27 +877,25 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>25.23</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>113.25</v>
       </c>
       <c r="H14">
         <v>45.2</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -936,27 +909,25 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>17.12</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>113.25</v>
       </c>
       <c r="H15">
         <v>45.2</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J15" t="s">
         <v>10</v>
@@ -970,27 +941,25 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>113.25</v>
       </c>
       <c r="H16">
         <v>45.2</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J16" t="s">
         <v>10</v>
@@ -1004,27 +973,25 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>113.25</v>
       </c>
       <c r="H17">
         <v>45.2</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J17" t="s">
         <v>10</v>
@@ -1038,27 +1005,25 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>11.23</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>113.25</v>
       </c>
       <c r="H18">
         <v>45.2</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J18" t="s">
         <v>10</v>
@@ -1072,27 +1037,25 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>50.12</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>113.25</v>
       </c>
       <c r="H19">
         <v>45.2</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J19" t="s">
         <v>10</v>
@@ -1106,27 +1069,25 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="F20">
         <v>7</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>113.25</v>
       </c>
       <c r="H20">
         <v>45.2</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
@@ -1140,29 +1101,26 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D21">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>15</v>
+        <v>6.12</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="F21">
         <f ca="1">RANDBETWEEN(1,20)</f>
         <v>11</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>113.25</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>11</v>
@@ -1176,24 +1134,22 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>13.24</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>113.25</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1207,28 +1163,26 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>71.13</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F58" ca="1" si="2">RANDBETWEEN(1,20)</f>
-        <v>20</v>
+        <f t="shared" ref="F23:F58" ca="1" si="0">RANDBETWEEN(1,20)</f>
+        <v>4</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="1"/>
-        <v>195</v>
+        <v>113.25</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1242,28 +1196,26 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>113.25</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1277,28 +1229,26 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="1"/>
-        <v>165</v>
+        <v>113.25</v>
       </c>
       <c r="H25">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1312,28 +1262,26 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>113.25</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1347,28 +1295,26 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>113.25</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1382,28 +1328,26 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D28">
         <v>9.0299999999999994</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>113.25</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1417,28 +1361,26 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D29">
         <v>12.13</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>113.25</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1452,28 +1394,26 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D30">
         <v>12.5</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <v>113.25</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1487,28 +1427,26 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>113.25</v>
       </c>
       <c r="H31">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1522,28 +1460,26 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>113.25</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1557,28 +1493,26 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>25.23</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="1"/>
-        <v>146</v>
+        <v>113.25</v>
       </c>
       <c r="H33">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1592,28 +1526,26 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>17.12</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>113.25</v>
       </c>
       <c r="H34">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1627,28 +1559,26 @@
         <v>15</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>113.25</v>
       </c>
       <c r="H35">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1662,28 +1592,26 @@
         <v>16</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>113.25</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1697,28 +1625,26 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>11.23</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>113.25</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1732,28 +1658,26 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>50.12</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>113.25</v>
       </c>
       <c r="H38">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I38">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1767,28 +1691,26 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>113.25</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I39">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1802,29 +1724,26 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D40">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>2</v>
+        <v>6.12</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>113.25</v>
       </c>
       <c r="H40">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I40">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>12</v>
@@ -1838,28 +1757,26 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>13.24</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>113.25</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I41">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1873,28 +1790,26 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D42">
-        <v>71</v>
+        <v>71.13</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>113.25</v>
       </c>
       <c r="H42">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I42">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1908,28 +1823,26 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D43">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>113.25</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I43">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1943,28 +1856,26 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>113.25</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I44">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1978,28 +1889,26 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>113.25</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I45">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -2013,28 +1922,26 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <v>113.25</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -2048,28 +1955,26 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D47">
         <v>9.0299999999999994</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>113.25</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I47">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -2083,28 +1988,26 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D48">
         <v>12.13</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>113.25</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -2118,28 +2021,26 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D49">
         <v>12.5</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>113.25</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -2153,28 +2054,26 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>113.25</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I50">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
@@ -2188,28 +2087,26 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D51">
+        <v>13.7</v>
+      </c>
+      <c r="E51">
+        <v>12.5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
       <c r="G51">
-        <f t="shared" ca="1" si="1"/>
-        <v>174</v>
+        <v>113.25</v>
       </c>
       <c r="H51">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I51">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J51" t="s">
         <v>12</v>
@@ -2223,28 +2120,26 @@
         <v>13</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>25.23</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>113.25</v>
       </c>
       <c r="H52">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I52">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
@@ -2258,28 +2153,26 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>17.12</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>113.25</v>
       </c>
       <c r="H53">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
@@ -2293,28 +2186,26 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>113.25</v>
       </c>
       <c r="H54">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I54">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J54" t="s">
         <v>12</v>
@@ -2328,28 +2219,26 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>113.25</v>
       </c>
       <c r="H55">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I55">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -2363,28 +2252,26 @@
         <v>17</v>
       </c>
       <c r="C56">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>11.23</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>113.25</v>
       </c>
       <c r="H56">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I56">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
@@ -2398,28 +2285,26 @@
         <v>18</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>50.12</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>113.25</v>
       </c>
       <c r="H57">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I57">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
@@ -2433,28 +2318,26 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>113.25</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I58">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>

--- a/src/main/resources/datasources/france/infoPaieFrance.xlsx
+++ b/src/main/resources/datasources/france/infoPaieFrance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\france\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\datasources\datasources\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2323C6-40E7-4A3A-8B69-054F6D843692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D65815C-5169-4F1C-A911-EFD7E2EC657E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Pret</t>
   </si>
   <si>
-    <t>Indemnite Logement</t>
-  </si>
-  <si>
     <t>Indemnite Transport</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>01/03/2021-31/03/2021</t>
+  </si>
+  <si>
+    <t>Indemnite Matrimo</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,13 +476,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -508,13 +508,13 @@
         <v>101.1</v>
       </c>
       <c r="H2">
-        <v>45.2</v>
+        <v>20.2</v>
       </c>
       <c r="I2">
         <v>20.5</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -543,10 +543,10 @@
         <v>45.2</v>
       </c>
       <c r="I3">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -569,16 +569,16 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>113.25</v>
+        <v>25.1</v>
       </c>
       <c r="H4">
-        <v>45.2</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="I4">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>113.25</v>
+        <v>13.25</v>
       </c>
       <c r="H5">
-        <v>45.2</v>
+        <v>15.2</v>
       </c>
       <c r="I5">
         <v>20.5</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,16 +633,16 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>113.25</v>
+        <v>103.25</v>
       </c>
       <c r="H6">
-        <v>45.2</v>
+        <v>17.07</v>
       </c>
       <c r="I6">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -665,16 +665,16 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <v>113.25</v>
+        <v>155.25</v>
       </c>
       <c r="H7">
-        <v>45.2</v>
+        <v>8.09</v>
       </c>
       <c r="I7">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -697,16 +697,16 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>113.25</v>
+        <v>143.25</v>
       </c>
       <c r="H8">
-        <v>45.2</v>
+        <v>16.12</v>
       </c>
       <c r="I8">
         <v>20.5</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -729,16 +729,16 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>113.25</v>
+        <v>122.25</v>
       </c>
       <c r="H9">
-        <v>45.2</v>
+        <v>14.23</v>
       </c>
       <c r="I9">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,16 +761,16 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>113.25</v>
+        <v>88.05</v>
       </c>
       <c r="H10">
-        <v>45.2</v>
+        <v>22.7</v>
       </c>
       <c r="I10">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,16 +793,16 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>113.25</v>
+        <v>98.25</v>
       </c>
       <c r="H11">
-        <v>45.2</v>
+        <v>16.34</v>
       </c>
       <c r="I11">
         <v>20.5</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -825,16 +825,16 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>113.25</v>
+        <v>250.25</v>
       </c>
       <c r="H12">
-        <v>45.2</v>
+        <v>45.09</v>
       </c>
       <c r="I12">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -857,16 +857,16 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>113.25</v>
+        <v>23.25</v>
       </c>
       <c r="H13">
-        <v>45.2</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="I13">
-        <v>20.5</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -889,16 +889,16 @@
         <v>15</v>
       </c>
       <c r="G14">
-        <v>113.25</v>
+        <v>20.25</v>
       </c>
       <c r="H14">
-        <v>45.2</v>
+        <v>32.67</v>
       </c>
       <c r="I14">
-        <v>20.5</v>
+        <v>19.32</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -921,16 +921,16 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>113.25</v>
+        <v>47.25</v>
       </c>
       <c r="H15">
-        <v>45.2</v>
+        <v>12.41</v>
       </c>
       <c r="I15">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,16 +953,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>113.25</v>
+        <v>13.25</v>
       </c>
       <c r="H16">
-        <v>45.2</v>
+        <v>23.12</v>
       </c>
       <c r="I16">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -985,16 +985,16 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>113.25</v>
+        <v>103.25</v>
       </c>
       <c r="H17">
-        <v>45.2</v>
+        <v>15.07</v>
       </c>
       <c r="I17">
         <v>20.5</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1017,16 +1017,16 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>113.25</v>
+        <v>155.25</v>
       </c>
       <c r="H18">
-        <v>45.2</v>
+        <v>7.2</v>
       </c>
       <c r="I18">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1049,16 +1049,16 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <v>113.25</v>
+        <v>143.25</v>
       </c>
       <c r="H19">
-        <v>45.2</v>
+        <v>55.2</v>
       </c>
       <c r="I19">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,16 +1081,16 @@
         <v>7</v>
       </c>
       <c r="G20">
-        <v>113.25</v>
+        <v>122.25</v>
       </c>
       <c r="H20">
-        <v>45.2</v>
+        <v>32.89</v>
       </c>
       <c r="I20">
         <v>20.5</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,20 +1110,19 @@
         <v>12.5</v>
       </c>
       <c r="F21">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>113.25</v>
+        <v>13.25</v>
       </c>
       <c r="H21">
-        <v>45.2</v>
+        <v>20.2</v>
       </c>
       <c r="I21">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,17 +1141,20 @@
       <c r="E22">
         <v>12.5</v>
       </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
       <c r="G22">
-        <v>113.25</v>
+        <v>103.25</v>
       </c>
       <c r="H22">
         <v>45.2</v>
       </c>
       <c r="I22">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1172,20 +1174,19 @@
         <v>12.5</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F58" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>113.25</v>
+        <v>155.25</v>
       </c>
       <c r="H23">
-        <v>45.2</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="I23">
         <v>20.5</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1205,20 +1206,19 @@
         <v>12.5</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>113.25</v>
+        <v>143.25</v>
       </c>
       <c r="H24">
-        <v>45.2</v>
+        <v>15.2</v>
       </c>
       <c r="I24">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,20 +1238,19 @@
         <v>12.5</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>113.25</v>
+        <v>122.25</v>
       </c>
       <c r="H25">
-        <v>45.2</v>
+        <v>17.07</v>
       </c>
       <c r="I25">
-        <v>20.5</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,20 +1270,19 @@
         <v>12.5</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>113.25</v>
       </c>
       <c r="H26">
-        <v>45.2</v>
+        <v>8.09</v>
       </c>
       <c r="I26">
-        <v>20.5</v>
+        <v>19.32</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1304,20 +1302,19 @@
         <v>12.5</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>113.25</v>
       </c>
       <c r="H27">
-        <v>45.2</v>
+        <v>16.12</v>
       </c>
       <c r="I27">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,20 +1334,19 @@
         <v>12.5</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>113.25</v>
+        <v>100.5</v>
       </c>
       <c r="H28">
-        <v>45.2</v>
+        <v>14.23</v>
       </c>
       <c r="I28">
         <v>20.5</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1370,20 +1366,19 @@
         <v>12.5</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G29">
         <v>113.25</v>
       </c>
       <c r="H29">
-        <v>45.2</v>
+        <v>22.7</v>
       </c>
       <c r="I29">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1403,20 +1398,19 @@
         <v>12.5</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="G30">
         <v>113.25</v>
       </c>
       <c r="H30">
-        <v>45.2</v>
+        <v>16.34</v>
       </c>
       <c r="I30">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1436,20 +1430,19 @@
         <v>12.5</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>113.25</v>
+        <v>100.5</v>
       </c>
       <c r="H31">
-        <v>45.2</v>
+        <v>45.09</v>
       </c>
       <c r="I31">
         <v>20.5</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,20 +1462,19 @@
         <v>12.5</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>113.25</v>
       </c>
       <c r="H32">
-        <v>45.2</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="I32">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1502,20 +1494,19 @@
         <v>12.5</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G33">
         <v>113.25</v>
       </c>
       <c r="H33">
-        <v>45.2</v>
+        <v>32.67</v>
       </c>
       <c r="I33">
-        <v>20.5</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1535,20 +1526,19 @@
         <v>12.5</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>113.25</v>
+        <v>100.5</v>
       </c>
       <c r="H34">
-        <v>45.2</v>
+        <v>12.41</v>
       </c>
       <c r="I34">
-        <v>20.5</v>
+        <v>19.32</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1568,20 +1558,19 @@
         <v>12.5</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>113.25</v>
       </c>
       <c r="H35">
-        <v>45.2</v>
+        <v>23.12</v>
       </c>
       <c r="I35">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,20 +1590,19 @@
         <v>12.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>113.25</v>
       </c>
       <c r="H36">
-        <v>45.2</v>
+        <v>15.07</v>
       </c>
       <c r="I36">
         <v>20.5</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,20 +1622,19 @@
         <v>12.5</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>113.25</v>
+        <v>100.5</v>
       </c>
       <c r="H37">
-        <v>45.2</v>
+        <v>7.2</v>
       </c>
       <c r="I37">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1667,20 +1654,19 @@
         <v>12.5</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>113.25</v>
       </c>
       <c r="H38">
-        <v>45.2</v>
+        <v>55.2</v>
       </c>
       <c r="I38">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1700,20 +1686,19 @@
         <v>12.5</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="G39">
         <v>113.25</v>
       </c>
       <c r="H39">
-        <v>45.2</v>
+        <v>32.89</v>
       </c>
       <c r="I39">
         <v>20.5</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1733,20 +1718,19 @@
         <v>12.5</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>113.25</v>
+        <v>100.5</v>
       </c>
       <c r="H40">
-        <v>45.2</v>
+        <v>20.2</v>
       </c>
       <c r="I40">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1766,20 +1750,19 @@
         <v>12.5</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>113.25</v>
+        <v>101.1</v>
       </c>
       <c r="H41">
         <v>45.2</v>
       </c>
       <c r="I41">
-        <v>20.5</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1799,20 +1782,19 @@
         <v>12.5</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>113.25</v>
       </c>
       <c r="H42">
-        <v>45.2</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="I42">
-        <v>20.5</v>
+        <v>19.32</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1832,20 +1814,19 @@
         <v>12.5</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>113.25</v>
+        <v>25.1</v>
       </c>
       <c r="H43">
-        <v>45.2</v>
+        <v>15.2</v>
       </c>
       <c r="I43">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1865,20 +1846,19 @@
         <v>15.5</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>113.25</v>
+        <v>13.25</v>
       </c>
       <c r="H44">
-        <v>45.2</v>
+        <v>17.07</v>
       </c>
       <c r="I44">
         <v>20.5</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,20 +1878,19 @@
         <v>12.5</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>113.25</v>
+        <v>103.25</v>
       </c>
       <c r="H45">
-        <v>45.2</v>
+        <v>8.09</v>
       </c>
       <c r="I45">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,20 +1910,19 @@
         <v>12.5</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>113.25</v>
+        <v>155.25</v>
       </c>
       <c r="H46">
-        <v>45.2</v>
+        <v>16.12</v>
       </c>
       <c r="I46">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1964,20 +1942,19 @@
         <v>12.5</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>113.25</v>
+        <v>143.25</v>
       </c>
       <c r="H47">
-        <v>45.2</v>
+        <v>14.23</v>
       </c>
       <c r="I47">
         <v>20.5</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1997,20 +1974,19 @@
         <v>12.5</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>113.25</v>
+        <v>122.25</v>
       </c>
       <c r="H48">
-        <v>45.2</v>
+        <v>22.7</v>
       </c>
       <c r="I48">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2030,20 +2006,19 @@
         <v>12.5</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>113.25</v>
+        <v>88.05</v>
       </c>
       <c r="H49">
-        <v>45.2</v>
+        <v>16.34</v>
       </c>
       <c r="I49">
-        <v>20.5</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2063,20 +2038,19 @@
         <v>12.5</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G50">
         <v>113.25</v>
       </c>
       <c r="H50">
-        <v>45.2</v>
+        <v>45.09</v>
       </c>
       <c r="I50">
-        <v>20.5</v>
+        <v>19.32</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2096,20 +2070,19 @@
         <v>12.5</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>113.25</v>
+        <v>101.25</v>
       </c>
       <c r="H51">
-        <v>45.2</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="I51">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2129,20 +2102,19 @@
         <v>12.5</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>113.25</v>
+        <v>121.1</v>
       </c>
       <c r="H52">
-        <v>45.2</v>
+        <v>32.67</v>
       </c>
       <c r="I52">
         <v>20.5</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2162,20 +2134,19 @@
         <v>12.5</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G53">
         <v>113.25</v>
       </c>
       <c r="H53">
-        <v>45.2</v>
+        <v>12.41</v>
       </c>
       <c r="I53">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2195,20 +2166,19 @@
         <v>12.5</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>113.25</v>
+        <v>98.25</v>
       </c>
       <c r="H54">
-        <v>45.2</v>
+        <v>23.12</v>
       </c>
       <c r="I54">
-        <v>20.5</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2228,20 +2198,19 @@
         <v>12.5</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>113.25</v>
+        <v>250.25</v>
       </c>
       <c r="H55">
-        <v>45.2</v>
+        <v>15.07</v>
       </c>
       <c r="I55">
         <v>20.5</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2261,20 +2230,19 @@
         <v>14.5</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>113.25</v>
+        <v>23.25</v>
       </c>
       <c r="H56">
-        <v>45.2</v>
+        <v>7.2</v>
       </c>
       <c r="I56">
-        <v>20.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2294,20 +2262,19 @@
         <v>13.5</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>113.25</v>
+        <v>20.25</v>
       </c>
       <c r="H57">
-        <v>45.2</v>
+        <v>55.2</v>
       </c>
       <c r="I57">
-        <v>20.5</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2327,24 +2294,232 @@
         <v>12.5</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>113.25</v>
+        <v>47.25</v>
       </c>
       <c r="H58">
-        <v>45.2</v>
+        <v>32.89</v>
       </c>
       <c r="I58">
-        <v>20.5</v>
+        <v>19.32</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100654329B97B503A49AABBB110B3A1CE9F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cbeca0e78f2af041d481eb5f034a155f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8622fd7-cec1-4731-a423-3ed22d3b9aea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bec814e9f48df65f8f22e78da7713096" ns2:_="">
+    <xsd:import namespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5C51BD0-C454-4E67-B5C2-4E6874944E6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC79658-CAD9-48F6-A9CA-8F1EB720D88D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32248D4A-9AD1-4407-9A96-3B0BC99C6DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>